--- a/code.xlsx
+++ b/code.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B20-E30-F11-PU-Bi-T-TD-RCT-CT-Bn-De</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B20-E60-F5-PU-Bi-Bn-De</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,18 @@
   </si>
   <si>
     <t>Pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20-E30-F11-PU-Bi-T-TD-RCT-CT-L-Bn-De</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -882,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -902,7 +910,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -922,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -942,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -962,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -982,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1002,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1022,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1042,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1062,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1082,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1102,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1119,10 +1127,10 @@
     </row>
     <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1142,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1162,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1179,10 +1187,10 @@
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1202,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1222,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1242,15 +1250,15 @@
         <v>16</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1262,99 +1270,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y21"/>
+  <dimension ref="B1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="23" max="23" width="9" style="7"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="24" max="24" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:26" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="U2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="Y2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="Z2" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>1</v>
@@ -1396,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>12</v>
@@ -1405,23 +1416,26 @@
         <v>13</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="29"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -1483,19 +1497,22 @@
         <v>150</v>
       </c>
       <c r="V4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="19">
         <v>0.27550000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1557,19 +1574,22 @@
         <v>150</v>
       </c>
       <c r="V5" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="18">
         <v>1</v>
       </c>
       <c r="X5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
         <v>0.85060000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -1631,19 +1651,22 @@
         <v>150</v>
       </c>
       <c r="V6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="18">
         <v>1</v>
       </c>
       <c r="X6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
         <v>0.92490000000000006</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -1708,16 +1731,19 @@
         <v>0</v>
       </c>
       <c r="W7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19">
         <v>0.90680000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -1779,19 +1805,22 @@
         <v>150</v>
       </c>
       <c r="V8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="18">
         <v>1</v>
       </c>
       <c r="X8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19">
         <v>0.9456</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -1853,19 +1882,22 @@
         <v>150</v>
       </c>
       <c r="V9" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="18">
         <v>1</v>
       </c>
       <c r="X9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="19">
         <v>0.93940000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -1927,24 +1959,27 @@
         <v>150</v>
       </c>
       <c r="V10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="18">
         <v>1</v>
       </c>
       <c r="X10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
         <v>0.91930000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D11" s="18">
         <v>20</v>
@@ -2007,18 +2042,21 @@
         <v>1</v>
       </c>
       <c r="X11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="19">
         <v>0.93410000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="18">
         <v>20</v>
@@ -2075,24 +2113,27 @@
         <v>150</v>
       </c>
       <c r="V12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="18">
         <v>1</v>
       </c>
       <c r="X12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="19">
         <v>0.94230000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="18">
         <v>256</v>
@@ -2149,24 +2190,27 @@
         <v>150</v>
       </c>
       <c r="V13" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="18">
         <v>1</v>
       </c>
       <c r="X13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="19">
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18">
         <v>20</v>
@@ -2223,24 +2267,27 @@
         <v>150</v>
       </c>
       <c r="V14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="18">
         <v>1</v>
       </c>
       <c r="X14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="19">
         <v>0.94330000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="18">
         <v>20</v>
@@ -2297,24 +2344,27 @@
         <v>150</v>
       </c>
       <c r="V15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="18">
         <v>1</v>
       </c>
       <c r="X15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="19">
         <v>0.85429999999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="18">
         <v>64</v>
@@ -2371,7 +2421,7 @@
         <v>150</v>
       </c>
       <c r="V16" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="18">
         <v>1</v>
@@ -2379,16 +2429,19 @@
       <c r="X16" s="18">
         <v>1</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="19">
         <v>0.2752</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="18">
         <v>256</v>
@@ -2445,24 +2498,27 @@
         <v>150</v>
       </c>
       <c r="V17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="18">
         <v>1</v>
       </c>
       <c r="X17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="19">
         <v>0.75509999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="18">
         <v>20</v>
@@ -2519,24 +2575,27 @@
         <v>150</v>
       </c>
       <c r="V18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="18">
         <v>1</v>
       </c>
       <c r="X18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19">
         <v>0.94320000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="18">
         <v>20</v>
@@ -2593,7 +2652,7 @@
         <v>150</v>
       </c>
       <c r="V19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="18">
         <v>1</v>
@@ -2601,16 +2660,19 @@
       <c r="X19" s="18">
         <v>1</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="19">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="18">
         <v>10</v>
@@ -2670,21 +2732,24 @@
         <v>0</v>
       </c>
       <c r="W20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="19">
         <v>0.92789999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>18</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="20">
         <v>10</v>
@@ -2741,20 +2806,24 @@
         <v>150</v>
       </c>
       <c r="V21" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="20">
         <v>1</v>
       </c>
       <c r="X21" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
         <v>0.93020000000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>